--- a/data/trace_masses.xlsx
+++ b/data/trace_masses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Documents/r_projects/eco_201_labs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407C86BE-79B7-E441-B37F-791FCF512C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A20C3D-0152-BF4B-B5F8-3BF5F9F5CA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="2160" windowWidth="28100" windowHeight="17440" xr2:uid="{CA9D5A1F-C5ED-594C-B18D-55EFA5D10E62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>leaf_number</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>shade</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Shade</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -461,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2.4</v>
@@ -483,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -505,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2.9</v>
@@ -516,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2.8</v>

--- a/data/trace_masses.xlsx
+++ b/data/trace_masses.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Documents/r_projects/eco_201_labs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A20C3D-0152-BF4B-B5F8-3BF5F9F5CA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC25AD3-C0CC-7446-9980-229D6EDCB9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2160" windowWidth="28100" windowHeight="17440" xr2:uid="{CA9D5A1F-C5ED-594C-B18D-55EFA5D10E62}"/>
+    <workbookView xWindow="45600" yWindow="-4080" windowWidth="24280" windowHeight="20700" xr2:uid="{3543BC54-7636-4EC8-A4B3-AAB818AF4638}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="14">
   <si>
     <t>leaf_number</t>
   </si>
@@ -47,28 +47,65 @@
     <t>trace_mass_g</t>
   </si>
   <si>
+    <t xml:space="preserve">sun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shade </t>
+  </si>
+  <si>
     <t>sun</t>
   </si>
   <si>
     <t>shade</t>
   </si>
   <si>
+    <t>section</t>
+  </si>
+  <si>
     <t>Sun</t>
   </si>
   <si>
-    <t>Shade</t>
+    <t>species</t>
+  </si>
+  <si>
+    <t>white oak</t>
+  </si>
+  <si>
+    <t>norway maple</t>
+  </si>
+  <si>
+    <t>tree number</t>
+  </si>
+  <si>
+    <t>red maple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ArialMT"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +124,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,142 +479,3428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0B5021-98D9-F24B-AEA9-D6F04D9B4064}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE1EF6-0D9B-40E8-A490-DE08D115176D}">
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.26090000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.94010000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.73009999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.37330000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.52929999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.51549999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.64429999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.46489999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.53710000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.7228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.36709999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.49230000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.6492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.43209999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.74219999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.72640000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.76470000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.62219999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.4496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.96589999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.43769999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.62190000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.93120000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.3135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.4995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.49209999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.24049999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.42370000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.45419999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.3029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>0.60289999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0.60770000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0.67290000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0.8175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>0.78029999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>0.69840000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>0.54679999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0.83130000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>1.0198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>1.2239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>0.67049999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>0.63470000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>0.36859999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>0.49349999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>0.75260000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>0.62129999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>1.0325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0.74019999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>0.36070000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>0.86040000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>0.6573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>0.66410000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>0.60029999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>0.91649999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>0.56230000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0.31769999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>0.2707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>0.84460000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>1.214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>1.1769000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>0.76119999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>0.23380000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>0.46629999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>0.70589999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>0.74109999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>0.52590000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>1.0214000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>0.71330000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0.6038</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>0.44259999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>32</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>0.41660000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>35</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>0.4153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>36</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>0.44719999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="F114" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="F115" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3">
+        <v>4</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="F120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1.0764</v>
+      </c>
+      <c r="F121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
+      </c>
+      <c r="C122" s="3">
+        <v>9</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.46820000000000001</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="F123" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4</v>
+      </c>
+      <c r="C124" s="3">
+        <v>11</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.8236</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>12</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.6825</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="3">
+        <v>13</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" s="3">
+        <v>14</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4</v>
+      </c>
+      <c r="C128" s="3">
+        <v>15</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.876</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" s="3">
+        <v>16</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4</v>
+      </c>
+      <c r="C130" s="3">
+        <v>17</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="F130" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4</v>
+      </c>
+      <c r="C131" s="3">
+        <v>18</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4</v>
+      </c>
+      <c r="C132" s="3">
+        <v>19</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="F132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="3">
+        <v>20</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4</v>
+      </c>
+      <c r="C134" s="3">
+        <v>21</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.8881</v>
+      </c>
+      <c r="F134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3">
+        <v>22</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1.883</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="3">
+        <v>23</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4</v>
+      </c>
+      <c r="C137" s="3">
+        <v>24</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="F137" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138" s="3">
+        <v>25</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4</v>
+      </c>
+      <c r="C139" s="3">
+        <v>26</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F139" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3">
+        <v>27</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="F140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141" s="3">
+        <v>28</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="F141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3">
+        <v>29</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="F142" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="3">
+        <v>30</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.8931</v>
+      </c>
+      <c r="F143" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1">
+        <v>4</v>
+      </c>
+      <c r="C144" s="3">
+        <v>31</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="F144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3">
+        <v>32</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="F145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.6462</v>
+      </c>
+      <c r="F146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4</v>
+      </c>
+      <c r="C147" s="3">
+        <v>34</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5</v>
+      </c>
+      <c r="C149" s="3">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="F150" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1">
+        <v>5</v>
+      </c>
+      <c r="C152" s="3">
+        <v>5</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.1618</v>
+      </c>
+      <c r="F152" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1">
+        <v>5</v>
+      </c>
+      <c r="C153" s="3">
+        <v>6</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1">
+        <v>5</v>
+      </c>
+      <c r="C154" s="3">
+        <v>7</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F154" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="1">
+        <v>5</v>
+      </c>
+      <c r="C155" s="3">
+        <v>8</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.438</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1">
+        <v>5</v>
+      </c>
+      <c r="C156" s="3">
+        <v>9</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="F156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5</v>
+      </c>
+      <c r="C157" s="3">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5</v>
+      </c>
+      <c r="C158" s="3">
+        <v>11</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="F158" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5</v>
+      </c>
+      <c r="C159" s="3">
+        <v>12</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5</v>
+      </c>
+      <c r="C160" s="3">
+        <v>13</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1">
+        <v>5</v>
+      </c>
+      <c r="C161" s="3">
+        <v>14</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1">
+        <v>5</v>
+      </c>
+      <c r="C162" s="3">
+        <v>15</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1">
+        <v>5</v>
+      </c>
+      <c r="C163" s="3">
+        <v>16</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1">
+        <v>5</v>
+      </c>
+      <c r="C164" s="3">
+        <v>17</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5</v>
+      </c>
+      <c r="C165" s="3">
+        <v>18</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1">
+        <v>5</v>
+      </c>
+      <c r="C166" s="3">
+        <v>19</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="1">
+        <v>5</v>
+      </c>
+      <c r="C167" s="3">
+        <v>20</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5</v>
+      </c>
+      <c r="C168" s="3">
+        <v>21</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1">
+        <v>5</v>
+      </c>
+      <c r="C169" s="3">
+        <v>22</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1">
+        <v>5</v>
+      </c>
+      <c r="C170" s="3">
+        <v>23</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.498</v>
+      </c>
+      <c r="F170" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5</v>
+      </c>
+      <c r="C171" s="3">
+        <v>24</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5</v>
+      </c>
+      <c r="C172" s="3">
+        <v>25</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.216</v>
+      </c>
+      <c r="F172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="C173" s="3">
+        <v>26</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1">
+        <v>5</v>
+      </c>
+      <c r="C174" s="3">
+        <v>27</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.45810000000000001</v>
+      </c>
+      <c r="F174" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="1">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3">
+        <v>28</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="C176" s="3">
+        <v>29</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="F176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+      <c r="C177" s="3">
+        <v>30</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1">
+        <v>5</v>
+      </c>
+      <c r="C178" s="3">
+        <v>31</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="1">
+        <v>5</v>
+      </c>
+      <c r="C179" s="3">
+        <v>32</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F179" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1">
+        <v>5</v>
+      </c>
+      <c r="C180" s="3">
+        <v>33</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1">
+        <v>5</v>
+      </c>
+      <c r="C181" s="3">
+        <v>34</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="F181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="1">
+        <v>5</v>
+      </c>
+      <c r="C182" s="3">
+        <v>35</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1">
+        <v>5</v>
+      </c>
+      <c r="C183" s="3">
+        <v>36</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.5675</v>
+      </c>
+      <c r="F183" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1">
+        <v>5</v>
+      </c>
+      <c r="C184" s="3">
+        <v>37</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="F184" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1">
+        <v>5</v>
+      </c>
+      <c r="C185" s="3">
+        <v>38</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3">
+        <v>39</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.2429</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5</v>
+      </c>
+      <c r="C187" s="3">
+        <v>40</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>